--- a/Leads And Coordinator/controller/Treasure Hunt participants.xlsx
+++ b/Leads And Coordinator/controller/Treasure Hunt participants.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Name</t>
   </si>
@@ -20,6 +20,9 @@
   </si>
   <si>
     <t>College</t>
+  </si>
+  <si>
+    <t>Phone Number</t>
   </si>
   <si>
     <t>Purchase_Type</t>
@@ -35,6 +38,9 @@
   </si>
   <si>
     <t>GCET</t>
+  </si>
+  <si>
+    <t>9429510862</t>
   </si>
   <si>
     <t>STATIC_COMBO</t>
@@ -86,13 +92,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView showGridLines="1" workbookViewId="0" rightToLeft="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="A1" s="0" t="s">
         <v>0</v>
       </c>
@@ -108,22 +114,28 @@
       <c r="E1" s="0" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="0" t="s">
+      <c r="F1" s="0" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="0" t="s">
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="B2" s="0" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="C2" s="0" t="s">
         <v>8</v>
       </c>
+      <c r="D2" s="0" t="s">
+        <v>9</v>
+      </c>
       <c r="E2" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="F2" s="0" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
